--- a/curation/draft/collection/collection_specialization_LBPERF_generic.xlsx
+++ b/curation/draft/collection/collection_specialization_LBPERF_generic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9A1DE0-2F5D-4306-B6E9-472B5312A928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B1BA2-20A9-4F5E-A7CE-3931AB43ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0238C1FC-BE78-EA48-A79B-B202E8307AFA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>package_date</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Lab Panel Name</t>
+  </si>
+  <si>
+    <t>LBCAT = CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LBCAT = URINALYSIS</t>
+  </si>
+  <si>
+    <t>LBCAT = HEMATOLOGY</t>
   </si>
 </sst>
 </file>
@@ -668,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F774E86D-46AB-5541-B5D8-2BFFA5CC8A22}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,7 +842,7 @@
         <v>47</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,7 +1009,7 @@
         <v>47</v>
       </c>
       <c r="AE5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
         <v>47</v>
       </c>
       <c r="AE8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
